--- a/results/LMS4_storage time.xlsx
+++ b/results/LMS4_storage time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://001gc-my.sharepoint.com/personal/chih-yu_hung_agr_gc_ca/Documents/AAFC/Project 11_Can Farm survey/FMS/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_28146FAD4DEC6CFA9535BF341995E0A86AF5392A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D32DAC-3B6E-44D3-AFBF-421869E818C7}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_60642FB2867CE8EC4334BFED6954DA566BF5C9AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D2358F1-DB38-4C8F-B7D0-2CA3FAC1465E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weighted values by province" sheetId="1" r:id="rId1"/>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,22 +493,22 @@
         <v>2017</v>
       </c>
       <c r="F2" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="G2" s="1">
         <v>2017</v>
       </c>
       <c r="H2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I2" s="1">
         <v>2017</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2022</v>
       </c>
       <c r="J2" s="1">
         <v>2022</v>
       </c>
       <c r="K2" s="1">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="L2" s="1">
         <v>2022</v>
@@ -873,22 +873,22 @@
         <v>2017</v>
       </c>
       <c r="F12" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="G12" s="1">
         <v>2017</v>
       </c>
       <c r="H12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I12" s="1">
         <v>2017</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2022</v>
       </c>
       <c r="J12" s="1">
         <v>2022</v>
       </c>
       <c r="K12" s="1">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="L12" s="1">
         <v>2022</v>
@@ -1246,7 +1246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:L21"/>
     </sheetView>
   </sheetViews>
@@ -1307,22 +1307,22 @@
         <v>2017</v>
       </c>
       <c r="F2" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="G2" s="1">
         <v>2017</v>
       </c>
       <c r="H2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I2" s="1">
         <v>2017</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2022</v>
       </c>
       <c r="J2" s="1">
         <v>2022</v>
       </c>
       <c r="K2" s="1">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="L2" s="1">
         <v>2022</v>
@@ -1687,22 +1687,22 @@
         <v>2017</v>
       </c>
       <c r="F12" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="G12" s="1">
         <v>2017</v>
       </c>
       <c r="H12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I12" s="1">
         <v>2017</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2022</v>
       </c>
       <c r="J12" s="1">
         <v>2022</v>
       </c>
       <c r="K12" s="1">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="L12" s="1">
         <v>2022</v>
